--- a/data/trans_dic/CONS_COL-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_COL-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>10,58%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,56; 18,39</t>
+          <t>11,4; 16,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,61; 14,77</t>
+          <t>8,27; 14,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,87; 16,71</t>
+          <t>10,24; 16,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,96; 12,13</t>
+          <t>4,84; 8,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,69; 13,68</t>
+          <t>9,02; 15,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,22; 7,24</t>
+          <t>5,81; 10,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,23; 14,39</t>
+          <t>8,52; 11,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,83; 13,57</t>
+          <t>9,45; 13,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,45; 11,44</t>
+          <t>8,71; 12,58</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>12,15%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,85; 24,61</t>
+          <t>10,24; 16,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,33; 17,43</t>
+          <t>9,84; 16,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,36; 17,37</t>
+          <t>12,49; 20,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,92; 12,85</t>
+          <t>8,48; 13,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,18; 11,57</t>
+          <t>7,29; 12,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,34; 12,74</t>
+          <t>6,58; 12,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,31; 17,28</t>
+          <t>9,95; 14,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,15; 13,78</t>
+          <t>9,33; 14,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,32; 13,89</t>
+          <t>9,98; 14,55</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>23,3%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>20,79%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>12,42%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,13; 19,29</t>
+          <t>20,41; 26,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,31; 17,17</t>
+          <t>2,3; 17,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,35; 24,5</t>
+          <t>7,85; 14,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,9; 22,72</t>
+          <t>10,91; 18,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,76; 21,9</t>
+          <t>12,24; 24,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,86; 17,54</t>
+          <t>10,65; 23,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,83; 18,08</t>
+          <t>18,35; 23,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,78; 17,45</t>
+          <t>2,82; 18,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,59; 21,7</t>
+          <t>9,72; 15,63</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,12%</t>
+          <t>18,19%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>39,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>16,27%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>26,85%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>13,05%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,26; 20,65</t>
+          <t>15,68; 20,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,64; 16,61</t>
+          <t>9,64; 14,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,24; 20,75</t>
+          <t>12,48; 19,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,62; 15,09</t>
+          <t>12,11; 16,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,18; 47,05</t>
+          <t>9,84; 76,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,17; 16,34</t>
+          <t>8,46; 13,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,81; 17,09</t>
+          <t>14,37; 18,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,45; 34,65</t>
+          <t>10,72; 57,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,55; 17,72</t>
+          <t>11,16; 15,13</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>15,8%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>19,16%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>15,27%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>13,56%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,82; 18,89</t>
+          <t>12,45; 19,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,97; 15,31</t>
+          <t>6,06; 13,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,53; 18,7</t>
+          <t>8,15; 16,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,52; 23,3</t>
+          <t>12,41; 17,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,08; 21,62</t>
+          <t>9,17; 19,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,62; 18,35</t>
+          <t>11,59; 20,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,82; 19,02</t>
+          <t>13,3; 17,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,98; 18,31</t>
+          <t>8,97; 15,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,89; 17,9</t>
+          <t>10,86; 16,51</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>32,77%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>16,09%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>30,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>20,37%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>20,16%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,04</t>
+          <t>0,7; 5,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,22</t>
+          <t>0,29; 2,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,81</t>
+          <t>0,0; 33,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,97; 59,52</t>
+          <t>14,35; 20,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,21; 18,23</t>
+          <t>13,5; 18,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,8; 17,59</t>
+          <t>10,28; 57,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,84; 35,83</t>
+          <t>10,66; 15,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,15; 14,43</t>
+          <t>10,11; 14,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,98; 12,31</t>
+          <t>9,13; 37,73</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16,19%</t>
+          <t>16,47%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,98%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>21,22%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>12,3%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,64; 17,86</t>
+          <t>15,22; 17,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,25; 13,56</t>
+          <t>6,72; 11,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,88; 17,14</t>
+          <t>12,1; 15,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,89; 13,87</t>
+          <t>11,86; 13,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,83; 25,83</t>
+          <t>12,52; 43,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,59; 13,41</t>
+          <t>9,64; 12,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,29; 15,39</t>
+          <t>13,82; 15,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,1; 20,15</t>
+          <t>10,74; 28,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,49; 14,88</t>
+          <t>11,23; 13,35</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos para el colesterol</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>19660</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>39666</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>38460</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9067</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>35801</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>22087</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>28726</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>75468</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>60547</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>16620; 24115</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>30328; 51960</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>30256; 47545</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6920; 11860</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>26947; 46655</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>16078; 29595</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>24592; 33344</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>62875; 90007</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>49822; 71974</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>10704</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>41878</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>30796</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12003</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>25145</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>21161</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>22707</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>67022</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>51958</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>8311; 13607</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>31886; 54062</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>24444; 39361</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>9256; 14974</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>18958; 33069</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>15254; 29124</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>18938; 26663</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>54471; 81761</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>42678; 62246</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>38178</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>38418</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>19658</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>9016</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>17239</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>13103</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>47194</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>55657</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>32761</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>33435; 43234</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10951; 84309</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>14196; 25958</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6892; 11431</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11938; 23498</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8816; 19419</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>41650; 52721</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16159; 104870</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>25629; 41203</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>30931</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>64669</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>47333</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>25580</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>250242</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>34159</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>56512</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>314911</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>81492</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>26665; 35640</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>51700; 78400</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>38496; 58685</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>21452; 29775</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>62645; 484801</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>26737; 42992</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>49905; 63066</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>125696; 671575</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>69658; 94459</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>12139</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>19821</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>17500</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>19886</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>62825</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>23892</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>32025</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>82646</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>41392</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9569; 15081</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>12809; 28966</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>12241; 24260</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>16491; 23731</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>38867; 81293</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>17968; 32004</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>27911; 37437</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>56948; 101303</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>33159; 50422</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1556</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>711</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>20116</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>77043</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3478</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>20992</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>78599</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4189</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>316; 2273</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>481; 4949</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3134</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>16970; 24122</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>66147; 90627</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1176; 6533</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>17434; 24732</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>66426; 94312</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1898; 7840</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1213</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>112488</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>206007</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>154458</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>95668</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>468295</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>117880</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>208156</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>674302</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>272338</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>103929; 121111</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>139846; 242128</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>137928; 171338</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>88218; 104026</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>276288; 962845</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>103477; 134421</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>197220; 220785</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>460252; 1221714</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>248645; 295659</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_COL-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_COL-Clase-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el colesterol</t>
+          <t>Consumo de medicamentos para el colesterol (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1448,7 +1448,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el colesterol</t>
+          <t>Consumo de medicamentos para el colesterol (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_COL-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_COL-Clase-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,4; 16,54</t>
+          <t>10,37; 15,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,27; 14,17</t>
+          <t>8,15; 13,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,84; 8,3</t>
+          <t>4,93; 8,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,02; 15,61</t>
+          <t>9,14; 15,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,52; 11,55</t>
+          <t>8,05; 11,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,45; 13,52</t>
+          <t>9,37; 13,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,24; 16,76</t>
+          <t>10,12; 16,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,84; 16,68</t>
+          <t>9,96; 16,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,48; 13,72</t>
+          <t>8,39; 12,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,29; 12,72</t>
+          <t>7,15; 12,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,95; 14,01</t>
+          <t>9,6; 13,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,33; 14,0</t>
+          <t>9,03; 13,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>23,3%</t>
+          <t>21,61%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,41; 26,39</t>
+          <t>19,04; 24,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 17,73</t>
+          <t>2,18; 18,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,91; 18,1</t>
+          <t>11,6; 19,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,24; 24,08</t>
+          <t>12,47; 24,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,35; 23,22</t>
+          <t>17,22; 21,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,82; 18,3</t>
+          <t>3,66; 18,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>16,75%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,68; 20,95</t>
+          <t>14,43; 19,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,64; 14,62</t>
+          <t>9,76; 14,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,11; 16,8</t>
+          <t>11,1; 15,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,84; 76,15</t>
+          <t>9,85; 76,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,37; 18,16</t>
+          <t>13,36; 16,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,72; 57,26</t>
+          <t>10,73; 56,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>15,52%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,45; 19,62</t>
+          <t>12,65; 20,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,06; 13,71</t>
+          <t>6,02; 13,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,41; 17,85</t>
+          <t>12,68; 18,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,17; 19,18</t>
+          <t>8,29; 18,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,3; 17,85</t>
+          <t>13,43; 18,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,97; 15,95</t>
+          <t>9,06; 15,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,7; 5,02</t>
+          <t>0,2; 2,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,97</t>
+          <t>0,28; 2,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,35; 20,39</t>
+          <t>13,2; 18,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,5; 18,5</t>
+          <t>13,23; 18,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,66; 15,12</t>
+          <t>9,16; 13,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,11; 14,36</t>
+          <t>10,05; 14,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,22; 17,73</t>
+          <t>13,86; 16,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,72; 11,64</t>
+          <t>6,1; 11,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,86; 13,99</t>
+          <t>11,29; 13,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,52; 43,62</t>
+          <t>12,67; 43,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,82; 15,48</t>
+          <t>12,86; 14,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,74; 28,5</t>
+          <t>10,97; 30,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19660</t>
+          <t>20587</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9067</t>
+          <t>10951</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28726</t>
+          <t>31538</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16620; 24115</t>
+          <t>16877; 24894</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>30328; 51960</t>
+          <t>29876; 50858</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6920; 11860</t>
+          <t>8306; 14365</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26947; 46655</t>
+          <t>27330; 45356</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24592; 33344</t>
+          <t>26677; 36628</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>62875; 90007</t>
+          <t>62374; 90044</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10704</t>
+          <t>11505</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12003</t>
+          <t>12920</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>22707</t>
+          <t>24425</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8311; 13607</t>
+          <t>9151; 14665</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>31886; 54062</t>
+          <t>32273; 53377</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9256; 14974</t>
+          <t>10287; 15915</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18958; 33069</t>
+          <t>18601; 32613</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18938; 26663</t>
+          <t>20456; 28604</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>54471; 81761</t>
+          <t>52744; 80099</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>38178</t>
+          <t>33250</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9016</t>
+          <t>9216</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>47194</t>
+          <t>42466</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>33435; 43234</t>
+          <t>29294; 37635</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10951; 84309</t>
+          <t>10381; 85968</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6892; 11431</t>
+          <t>7146; 11958</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>11938; 23498</t>
+          <t>12169; 23508</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2011,12 +2011,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>41650; 52721</t>
+          <t>37111; 46948</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>16159; 104870</t>
+          <t>20982; 103654</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>30931</t>
+          <t>28425</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>25580</t>
+          <t>24144</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>56512</t>
+          <t>52569</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>26665; 35640</t>
+          <t>24486; 32524</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>51700; 78400</t>
+          <t>52309; 79988</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21452; 29775</t>
+          <t>20225; 28311</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>62645; 484801</t>
+          <t>62740; 489373</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2174,12 +2174,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>49905; 63066</t>
+          <t>47004; 58877</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>125696; 671575</t>
+          <t>125783; 663235</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12139</t>
+          <t>11989</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19886</t>
+          <t>19471</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>32025</t>
+          <t>31460</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>9569; 15081</t>
+          <t>9417; 15220</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>12809; 28966</t>
+          <t>12707; 28830</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2322,12 +2322,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>16491; 23731</t>
+          <t>15905; 23114</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>38867; 81293</t>
+          <t>35131; 79590</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2337,12 +2337,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>27911; 37437</t>
+          <t>26840; 36068</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>56948; 101303</t>
+          <t>57528; 100884</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>596</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>20116</t>
+          <t>19655</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>20992</t>
+          <t>20250</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2470,12 +2470,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>316; 2273</t>
+          <t>111; 1583</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>481; 4949</t>
+          <t>465; 4584</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2485,12 +2485,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>16970; 24122</t>
+          <t>16189; 23166</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>66147; 90627</t>
+          <t>64843; 90213</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>17434; 24732</t>
+          <t>16328; 23651</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>66426; 94312</t>
+          <t>65976; 93113</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>112488</t>
+          <t>106351</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>95668</t>
+          <t>96357</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>208156</t>
+          <t>202708</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2633,12 +2633,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>103929; 121111</t>
+          <t>97989; 114376</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>139846; 242128</t>
+          <t>126874; 244599</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2648,12 +2648,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>88218; 104026</t>
+          <t>88416; 104011</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>276288; 962845</t>
+          <t>279701; 954661</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>197220; 220785</t>
+          <t>191620; 214241</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>460252; 1221714</t>
+          <t>470157; 1286627</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_COL-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_COL-Clase-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>11,2%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13,01%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>12,65%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>10,82%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>13,01%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>12,03%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7,98%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>6,5%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>11,98%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>7,98%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>11,57%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10,58%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>9,52%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>11,34%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>10,58%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>8,6; 14,31</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10,24; 16,09</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>10,37; 15,29</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>8,15; 13,87</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>10,24; 16,09</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>9,27; 15,27</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5,81; 10,7</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>4,93; 8,52</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>9,14; 15,17</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>5,81; 10,7</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>9,59; 13,86</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8,71; 12,58</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>8,05; 11,05</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>9,37; 13,53</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>8,71; 12,58</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>12,67%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>15,73%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>12,72%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>12,92%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>15,73%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>9,49%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9,12%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>10,53%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>9,67%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>9,12%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>11,23%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12,15%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>11,46%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>11,47%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>12,15%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>9,76; 16,06</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12,49; 20,11</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>10,12; 16,22</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>9,96; 16,47</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>12,49; 20,11</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>7,04; 12,22</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6,58; 12,55</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>8,39; 12,97</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>7,15; 12,54</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>6,58; 12,55</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>8,91; 13,45</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>9,98; 14,55</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>9,6; 13,42</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>9,03; 13,71</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>9,98; 14,55</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>15,42%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10,87%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>21,61%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>8,08%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>10,87%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>17,45%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>15,82%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>14,96%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>17,67%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>15,82%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>16,03%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>12,42%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>19,71%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>9,71%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>12,42%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>11,85; 19,65</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7,85; 14,35</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>19,04; 24,46</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,18; 18,08</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>7,85; 14,35</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>12,32; 23,57</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>10,65; 23,45</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>11,6; 19,41</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>12,47; 24,09</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>10,65; 23,45</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>12,85; 19,48</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9,72; 15,63</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>17,22; 21,79</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>3,66; 18,09</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>9,72; 15,63</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>11,53%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15,35%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>16,75%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>12,06%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>15,35%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>10,34%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10,81%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>13,25%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>39,31%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>10,81%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>11,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13,05%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>14,94%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>26,85%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>13,05%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>9,33; 14,11</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>12,48; 19,03</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>14,43; 19,16</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>9,76; 14,92</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>12,48; 19,03</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>8,39; 12,81</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8,46; 13,61</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>11,1; 15,54</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>9,85; 76,87</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>8,46; 13,61</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>9,44; 12,7</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11,16; 15,13</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>13,36; 16,73</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>10,73; 56,55</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>11,16; 15,13</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>8,83%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11,64%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>16,1%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>9,38%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>11,64%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>17,38%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15,41%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>15,52%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>14,82%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>15,41%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>14,11%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13,56%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>15,74%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>13,01%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>13,56%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>5,9; 12,67</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8,15; 16,14</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>12,65; 20,44</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>6,02; 13,65</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>8,15; 16,14</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>14,69; 20,51</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>11,59; 20,64</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>12,68; 18,43</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>8,29; 18,77</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>11,59; 20,64</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>11,88; 16,49</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>10,86; 16,51</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>13,43; 18,05</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>9,06; 15,88</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>10,86; 16,51</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>0,95%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>7,61%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>1,07%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,93%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>7,61%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>15,52%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>30,42%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>16,03%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>15,72%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>30,42%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>12,08%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>20,16%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>11,36%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>11,97%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>20,16%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,29; 2,73</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 33,52</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>0,2; 2,85</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,28; 2,75</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 33,52</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>13,07; 18,09</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>10,28; 57,14</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>13,2; 18,9</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>13,23; 18,41</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>10,28; 57,14</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>10,18; 14,27</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>9,13; 37,73</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>9,16; 13,27</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>10,05; 14,18</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>9,13; 37,73</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>10,94%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>13,55%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>15,05%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>9,9%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>13,55%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>13,48%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>10,98%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>12,31%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>21,22%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>10,98%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>12,25%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>12,3%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>13,61%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>15,73%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>12,3%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>9,7; 12,35</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>12,1; 15,03</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>13,86; 16,18</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>6,1; 11,76</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>12,1; 15,03</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>12,35; 14,7</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9,64; 12,52</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>11,29; 13,28</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>12,67; 43,25</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>9,64; 12,52</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>11,39; 13,12</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>11,23; 13,35</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>12,86; 14,38</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>10,97; 30,01</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>11,23; 13,35</t>
         </is>
       </c>
     </row>
@@ -1479,47 +1479,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>113</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>58</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>171</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>126</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>44273</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>38460</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>20587</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>39666</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>38460</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>39401</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>22087</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>10951</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>35801</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>22087</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>83674</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>60547</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>31538</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>75468</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>60547</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>33985; 56596</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>30256; 47545</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>16877; 24894</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>29876; 50858</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>30256; 47545</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>30360; 50023</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>16078; 29595</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>8306; 14365</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>27330; 45356</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>16078; 29595</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>69320; 100210</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>49822; 71974</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>26677; 36628</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>62374; 90044</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>49822; 71974</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>63</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>75</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>138</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>110</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>43646</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>30796</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>11505</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>41878</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>30796</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>27218</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>21161</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>12920</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>25145</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>21161</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>70863</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>51958</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>24425</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>67022</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>51958</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>33601; 55308</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>24444; 39361</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>9151; 14665</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>32273; 53377</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>24444; 39361</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>20204; 35072</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>15254; 29124</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>10287; 15915</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>18601; 32613</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>15254; 29124</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>56236; 84917</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>42678; 62246</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>20456; 28604</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>52744; 80099</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>42678; 62246</t>
         </is>
       </c>
     </row>
@@ -1875,47 +1875,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>206</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>58</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>264</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>77</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>40169</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>19658</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>33250</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>38418</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>19658</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>19457</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13103</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>9216</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>17239</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>13103</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>59626</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>32761</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>42466</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>55657</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>32761</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>30875; 51200</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>14196; 25958</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>29294; 37635</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>10381; 85968</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>14196; 25958</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>13738; 26276</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8816; 19419</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>7146; 11958</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>12169; 23508</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>8816; 19419</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>47807; 72472</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>25629; 41203</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>37111; 46948</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>20982; 103654</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>25629; 41203</t>
         </is>
       </c>
     </row>
@@ -2038,47 +2038,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>175</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>87</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>146</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>321</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>174</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>171</t>
         </is>
       </c>
     </row>
@@ -2091,47 +2091,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>70358</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>47333</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>28425</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>64669</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>47333</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>50665</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>34159</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>24144</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>250242</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>34159</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>121023</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>81492</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>52569</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>314911</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>81492</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>56899; 86073</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>38496; 58685</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>24486; 32524</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>52309; 79988</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>38496; 58685</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>41113; 62813</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>26737; 42992</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>20225; 28311</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>62740; 489373</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>26737; 42992</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>103814; 139709</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>69658; 94459</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>47004; 58877</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>125783; 663235</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>69658; 94459</t>
         </is>
       </c>
     </row>
@@ -2201,19 +2201,19 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>76</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
           <t>118</t>
@@ -2221,27 +2221,27 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>118</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>194</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>85</t>
         </is>
       </c>
     </row>
@@ -2254,47 +2254,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>22359</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>17500</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>11989</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>19821</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>17500</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>70928</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>23892</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>19471</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>62825</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>23892</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>93287</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>41392</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>31460</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>82646</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>41392</t>
         </is>
       </c>
     </row>
@@ -2307,47 +2307,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>14953; 32106</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>12241; 24260</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>9417; 15220</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>12707; 28830</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>12241; 24260</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>59948; 83672</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>17968; 32004</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>15905; 23114</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>35131; 79590</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>17968; 32004</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>78566; 109044</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>33159; 50422</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>26840; 36068</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>57528; 100884</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>33159; 50422</t>
         </is>
       </c>
     </row>
@@ -2364,47 +2364,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>121</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>146</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>125</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>149</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
         </is>
       </c>
     </row>
@@ -2417,47 +2417,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>1604</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>711</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>596</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>1556</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>711</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>84901</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3478</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>19655</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>77043</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>3478</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>86505</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4189</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>20250</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>78599</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>4189</t>
         </is>
       </c>
     </row>
@@ -2470,47 +2470,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>485; 4628</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3134</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>111; 1583</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>465; 4584</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>0; 3134</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>71484; 98909</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1176; 6533</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>16189; 23166</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>64843; 90213</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>1176; 6533</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>72915; 102233</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1898; 7840</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>16328; 23651</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>65976; 93113</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>1898; 7840</t>
         </is>
       </c>
     </row>
@@ -2527,47 +2527,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>637</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>279</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>343</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>576</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>489</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>233</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>1213</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>768</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>576</t>
         </is>
       </c>
     </row>
@@ -2580,47 +2580,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>222409</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>154458</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>106351</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>206007</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>154458</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>292569</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>117880</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>96357</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>468295</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>117880</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>514978</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>272338</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>202708</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>674302</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>272338</t>
         </is>
       </c>
     </row>
@@ -2633,47 +2633,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>197135; 251000</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>137928; 171338</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>97989; 114376</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>126874; 244599</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>137928; 171338</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>268064; 319068</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>103477; 134421</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>88416; 104011</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>279701; 954661</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>103477; 134421</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>478864; 551742</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>248645; 295659</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>191620; 214241</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>470157; 1286627</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>248645; 295659</t>
         </is>
       </c>
     </row>
